--- a/public/downloads/export.xlsx
+++ b/public/downloads/export.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,91 +418,21 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Pepper-Rice with Chicken</v>
+        <v>Burger and Fries, Chicken Fillet</v>
       </c>
       <c r="B2" t="str">
-        <v>kilimanjaro</v>
+        <v>Kilimanjaro</v>
       </c>
       <c r="C2" t="str">
-        <v>coca-cola</v>
+        <v>Maltina</v>
       </c>
       <c r="D2" t="str">
-        <v>emmanuel olajumoke</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Pepper-Rice with Chicken</v>
-      </c>
-      <c r="B3" t="str">
-        <v>kilimanjaro</v>
-      </c>
-      <c r="C3" t="str">
-        <v>coca-cola</v>
-      </c>
-      <c r="D3" t="str">
-        <v>emmanuel olajumoke</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>eba and stew</v>
-      </c>
-      <c r="B4" t="str">
-        <v>tantalizer</v>
-      </c>
-      <c r="C4" t="str">
-        <v>sprite</v>
-      </c>
-      <c r="D4" t="str">
-        <v>emmanuel olajumoke</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Pepper-Rice with Chicken</v>
-      </c>
-      <c r="B5" t="str">
-        <v>kilimanjaro</v>
-      </c>
-      <c r="C5" t="str">
-        <v>coca-cola</v>
-      </c>
-      <c r="D5" t="str">
-        <v>emmanuel olajumoke</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Pepper-Rice with Chicken</v>
-      </c>
-      <c r="B6" t="str">
-        <v>kilimanjaro</v>
-      </c>
-      <c r="C6" t="str">
-        <v>coca-cola</v>
-      </c>
-      <c r="D6" t="str">
-        <v>emmanuel olajumoke</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Pepper-Rice with Chicken</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Green Place</v>
-      </c>
-      <c r="C7" t="str">
-        <v>coca-cola</v>
-      </c>
-      <c r="D7" t="str">
-        <v>oyelade abiola</v>
+        <v>olajumoke</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>